--- a/Code/Results/Cases/Case_5_185/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_185/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.051979028218823</v>
+        <v>1.080416947809462</v>
       </c>
       <c r="D2">
-        <v>1.065294662571568</v>
+        <v>1.082600923681428</v>
       </c>
       <c r="E2">
-        <v>1.061028986162248</v>
+        <v>1.083516436617712</v>
       </c>
       <c r="F2">
-        <v>1.071949739308829</v>
+        <v>1.093851892338386</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.068144883941302</v>
+        <v>1.06169137221202</v>
       </c>
       <c r="J2">
-        <v>1.072708911627877</v>
+        <v>1.085296588463696</v>
       </c>
       <c r="K2">
-        <v>1.07591354656147</v>
+        <v>1.085268716931678</v>
       </c>
       <c r="L2">
-        <v>1.071698855102645</v>
+        <v>1.086181849270659</v>
       </c>
       <c r="M2">
-        <v>1.082490082238041</v>
+        <v>1.096490727932794</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.057854055022744</v>
+        <v>1.081638820709448</v>
       </c>
       <c r="D3">
-        <v>1.069974661140619</v>
+        <v>1.083590410843402</v>
       </c>
       <c r="E3">
-        <v>1.065985787647056</v>
+        <v>1.084587261377797</v>
       </c>
       <c r="F3">
-        <v>1.077060693932346</v>
+        <v>1.094955990059693</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.070357696595928</v>
+        <v>1.062087799923796</v>
       </c>
       <c r="J3">
-        <v>1.076882853565804</v>
+        <v>1.086178520799056</v>
       </c>
       <c r="K3">
-        <v>1.079784148605834</v>
+        <v>1.086076453293011</v>
       </c>
       <c r="L3">
-        <v>1.075838642241407</v>
+        <v>1.087070899070885</v>
       </c>
       <c r="M3">
-        <v>1.086794111891448</v>
+        <v>1.097414893440484</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.061567679239448</v>
+        <v>1.08242949720248</v>
       </c>
       <c r="D4">
-        <v>1.072935494247827</v>
+        <v>1.084230661042608</v>
       </c>
       <c r="E4">
-        <v>1.069123815775926</v>
+        <v>1.085280408757778</v>
       </c>
       <c r="F4">
-        <v>1.080296363549696</v>
+        <v>1.095670700494448</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.071747279418289</v>
+        <v>1.062343137207977</v>
       </c>
       <c r="J4">
-        <v>1.079517623800551</v>
+        <v>1.086748650882023</v>
       </c>
       <c r="K4">
-        <v>1.08222667537112</v>
+        <v>1.086598477465925</v>
       </c>
       <c r="L4">
-        <v>1.078453856232782</v>
+        <v>1.087645820267207</v>
       </c>
       <c r="M4">
-        <v>1.089513445633883</v>
+        <v>1.098012574447813</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.063108749085882</v>
+        <v>1.082761909246758</v>
       </c>
       <c r="D5">
-        <v>1.074164735186017</v>
+        <v>1.084499819287961</v>
       </c>
       <c r="E5">
-        <v>1.070427127228323</v>
+        <v>1.08557186882606</v>
       </c>
       <c r="F5">
-        <v>1.081640240417429</v>
+        <v>1.095971233636998</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.072321690816951</v>
+        <v>1.062450199306736</v>
       </c>
       <c r="J5">
-        <v>1.080610090173562</v>
+        <v>1.086988205182483</v>
       </c>
       <c r="K5">
-        <v>1.083239238631692</v>
+        <v>1.086817784879367</v>
       </c>
       <c r="L5">
-        <v>1.07953868932358</v>
+        <v>1.087887433080355</v>
       </c>
       <c r="M5">
-        <v>1.090641555090104</v>
+        <v>1.098263764481661</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.063366345987765</v>
+        <v>1.082817723413897</v>
       </c>
       <c r="D6">
-        <v>1.07437023984658</v>
+        <v>1.084545011982561</v>
       </c>
       <c r="E6">
-        <v>1.070645044904143</v>
+        <v>1.085620809841619</v>
       </c>
       <c r="F6">
-        <v>1.081864941468496</v>
+        <v>1.096021698529139</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.072417573839244</v>
+        <v>1.062468158994482</v>
       </c>
       <c r="J6">
-        <v>1.08079264664748</v>
+        <v>1.087028419894739</v>
       </c>
       <c r="K6">
-        <v>1.083408431325932</v>
+        <v>1.086854598687778</v>
       </c>
       <c r="L6">
-        <v>1.079719998044573</v>
+        <v>1.087927996022097</v>
       </c>
       <c r="M6">
-        <v>1.090830101619953</v>
+        <v>1.098305936008283</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.061588349056514</v>
+        <v>1.082433938861021</v>
       </c>
       <c r="D7">
-        <v>1.072951979469023</v>
+        <v>1.084234257559231</v>
       </c>
       <c r="E7">
-        <v>1.069141292343956</v>
+        <v>1.085284303021456</v>
       </c>
       <c r="F7">
-        <v>1.080314384025882</v>
+        <v>1.095674715961671</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.071754992674019</v>
+        <v>1.06234456888346</v>
       </c>
       <c r="J7">
-        <v>1.079532280284953</v>
+        <v>1.086751852321927</v>
       </c>
       <c r="K7">
-        <v>1.082240260651396</v>
+        <v>1.086601408457126</v>
       </c>
       <c r="L7">
-        <v>1.078468408436426</v>
+        <v>1.08764904903902</v>
       </c>
       <c r="M7">
-        <v>1.089528578019287</v>
+        <v>1.098015931155575</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.05398328842579</v>
+        <v>1.08082987737841</v>
       </c>
       <c r="D8">
-        <v>1.066890658592101</v>
+        <v>1.082935328704265</v>
       </c>
       <c r="E8">
-        <v>1.06271894800653</v>
+        <v>1.083878274975155</v>
       </c>
       <c r="F8">
-        <v>1.073692247059759</v>
+        <v>1.094224968576909</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.068901679024155</v>
+        <v>1.061825590901966</v>
       </c>
       <c r="J8">
-        <v>1.074133576987198</v>
+        <v>1.085594753659825</v>
       </c>
       <c r="K8">
-        <v>1.077234829257367</v>
+        <v>1.085541827074231</v>
       </c>
       <c r="L8">
-        <v>1.073111437826071</v>
+        <v>1.086482381341756</v>
       </c>
       <c r="M8">
-        <v>1.083958630714335</v>
+        <v>1.096803119733042</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.039865020305687</v>
+        <v>1.078003585153308</v>
       </c>
       <c r="D9">
-        <v>1.055661917958436</v>
+        <v>1.080646321009909</v>
       </c>
       <c r="E9">
-        <v>1.050837627499234</v>
+        <v>1.081402580407304</v>
       </c>
       <c r="F9">
-        <v>1.061441723469106</v>
+        <v>1.091672488852449</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.063533419499061</v>
+        <v>1.060902049681847</v>
       </c>
       <c r="J9">
-        <v>1.064084529809115</v>
+        <v>1.083551638393818</v>
       </c>
       <c r="K9">
-        <v>1.0679121510347</v>
+        <v>1.083669819673396</v>
       </c>
       <c r="L9">
-        <v>1.06315643650218</v>
+        <v>1.084423831009779</v>
       </c>
       <c r="M9">
-        <v>1.073610834230916</v>
+        <v>1.09466354645615</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.029904048999062</v>
+        <v>1.076119484360374</v>
       </c>
       <c r="D10">
-        <v>1.047760153504531</v>
+        <v>1.079120197503143</v>
       </c>
       <c r="E10">
-        <v>1.042487134979769</v>
+        <v>1.079753361865137</v>
       </c>
       <c r="F10">
-        <v>1.052832038800631</v>
+        <v>1.089972250070596</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.059700387347621</v>
+        <v>1.060280259538646</v>
       </c>
       <c r="J10">
-        <v>1.056979463353321</v>
+        <v>1.082186719757437</v>
       </c>
       <c r="K10">
-        <v>1.061317495301493</v>
+        <v>1.082418491065267</v>
       </c>
       <c r="L10">
-        <v>1.056129425217609</v>
+        <v>1.083049588579778</v>
       </c>
       <c r="M10">
-        <v>1.066308700438731</v>
+        <v>1.093235482703579</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.025444087286793</v>
+        <v>1.075303650135021</v>
       </c>
       <c r="D11">
-        <v>1.044228152492266</v>
+        <v>1.07845933321326</v>
       </c>
       <c r="E11">
-        <v>1.038756929780063</v>
+        <v>1.079039518038701</v>
       </c>
       <c r="F11">
-        <v>1.048986125280278</v>
+        <v>1.089236353995435</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.057974052735019</v>
+        <v>1.060009566565047</v>
       </c>
       <c r="J11">
-        <v>1.053795376619003</v>
+        <v>1.081595010112787</v>
       </c>
       <c r="K11">
-        <v>1.058361559096634</v>
+        <v>1.081875854864655</v>
       </c>
       <c r="L11">
-        <v>1.052983176961261</v>
+        <v>1.082454072334561</v>
       </c>
       <c r="M11">
-        <v>1.063039808543071</v>
+        <v>1.092616707253953</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.023763840354789</v>
+        <v>1.075000610225723</v>
       </c>
       <c r="D12">
-        <v>1.042898502049532</v>
+        <v>1.07821385158801</v>
       </c>
       <c r="E12">
-        <v>1.037353009412911</v>
+        <v>1.078774405635406</v>
       </c>
       <c r="F12">
-        <v>1.047538667933668</v>
+        <v>1.088963056371649</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.057322215611374</v>
+        <v>1.059908800229038</v>
       </c>
       <c r="J12">
-        <v>1.052595444933647</v>
+        <v>1.081375117985726</v>
       </c>
       <c r="K12">
-        <v>1.057247533353373</v>
+        <v>1.081674174179077</v>
       </c>
       <c r="L12">
-        <v>1.051797945059624</v>
+        <v>1.082232801052846</v>
       </c>
       <c r="M12">
-        <v>1.061808459028927</v>
+        <v>1.092386803344554</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.024125354510416</v>
+        <v>1.075065613468904</v>
       </c>
       <c r="D13">
-        <v>1.043184536797751</v>
+        <v>1.078266508568451</v>
       </c>
       <c r="E13">
-        <v>1.037655005693437</v>
+        <v>1.078831271305858</v>
       </c>
       <c r="F13">
-        <v>1.047850028886992</v>
+        <v>1.089021677530015</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.057462526640806</v>
+        <v>1.059930424864547</v>
       </c>
       <c r="J13">
-        <v>1.05285363171079</v>
+        <v>1.081422290353154</v>
       </c>
       <c r="K13">
-        <v>1.057487238985513</v>
+        <v>1.081717440879809</v>
       </c>
       <c r="L13">
-        <v>1.052052948849594</v>
+        <v>1.082280267677366</v>
       </c>
       <c r="M13">
-        <v>1.062073381233217</v>
+        <v>1.092436121385875</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.025305688918178</v>
+        <v>1.075278600828319</v>
       </c>
       <c r="D14">
-        <v>1.044118611172274</v>
+        <v>1.078439041777001</v>
       </c>
       <c r="E14">
-        <v>1.038641262882951</v>
+        <v>1.079017602933968</v>
       </c>
       <c r="F14">
-        <v>1.048866871196914</v>
+        <v>1.089213762176226</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.057920391518991</v>
+        <v>1.060001241656954</v>
       </c>
       <c r="J14">
-        <v>1.053696547659837</v>
+        <v>1.081576835905168</v>
       </c>
       <c r="K14">
-        <v>1.058269806933081</v>
+        <v>1.08185918635852</v>
       </c>
       <c r="L14">
-        <v>1.052885549702324</v>
+        <v>1.082435783415199</v>
       </c>
       <c r="M14">
-        <v>1.062938380867996</v>
+        <v>1.092597704618627</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.026029752994332</v>
+        <v>1.075409828950438</v>
       </c>
       <c r="D15">
-        <v>1.044691743902417</v>
+        <v>1.07854534420324</v>
       </c>
       <c r="E15">
-        <v>1.039246459347413</v>
+        <v>1.079132413403036</v>
       </c>
       <c r="F15">
-        <v>1.049490837142498</v>
+        <v>1.089332118059628</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.058201074007934</v>
+        <v>1.06004484519682</v>
       </c>
       <c r="J15">
-        <v>1.054213580766529</v>
+        <v>1.081672042600232</v>
       </c>
       <c r="K15">
-        <v>1.058749814220752</v>
+        <v>1.081946504308779</v>
       </c>
       <c r="L15">
-        <v>1.053396313991041</v>
+        <v>1.082531592487219</v>
       </c>
       <c r="M15">
-        <v>1.063469031526603</v>
+        <v>1.092697252985656</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.030196818858621</v>
+        <v>1.076173628305318</v>
       </c>
       <c r="D16">
-        <v>1.047992140548565</v>
+        <v>1.079164055922363</v>
       </c>
       <c r="E16">
-        <v>1.042732188821456</v>
+        <v>1.079800743124408</v>
       </c>
       <c r="F16">
-        <v>1.053084695620055</v>
+        <v>1.090021095702848</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.059813505765201</v>
+        <v>1.060298193868043</v>
       </c>
       <c r="J16">
-        <v>1.05718842627978</v>
+        <v>1.082225974934593</v>
       </c>
       <c r="K16">
-        <v>1.061511474377257</v>
+        <v>1.082454487059195</v>
       </c>
       <c r="L16">
-        <v>1.05633596519839</v>
+        <v>1.083089101259543</v>
       </c>
       <c r="M16">
-        <v>1.066523302971935</v>
+        <v>1.093276539984573</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.032770347438496</v>
+        <v>1.076652736523996</v>
       </c>
       <c r="D17">
-        <v>1.050032059526546</v>
+        <v>1.079552145443571</v>
       </c>
       <c r="E17">
-        <v>1.044887275589771</v>
+        <v>1.080220042684818</v>
       </c>
       <c r="F17">
-        <v>1.055306654022315</v>
+        <v>1.090453357813935</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.060806706940278</v>
+        <v>1.060456723232164</v>
       </c>
       <c r="J17">
-        <v>1.059024954234703</v>
+        <v>1.082573256365616</v>
       </c>
       <c r="K17">
-        <v>1.063216247825516</v>
+        <v>1.08277291572442</v>
       </c>
       <c r="L17">
-        <v>1.058151523926703</v>
+        <v>1.083438687943874</v>
       </c>
       <c r="M17">
-        <v>1.068409795817231</v>
+        <v>1.093639799831212</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.034257392414013</v>
+        <v>1.076932191771472</v>
       </c>
       <c r="D18">
-        <v>1.051211329465084</v>
+        <v>1.07977850742401</v>
       </c>
       <c r="E18">
-        <v>1.04613334893055</v>
+        <v>1.080464639973408</v>
       </c>
       <c r="F18">
-        <v>1.056591399583707</v>
+        <v>1.09070551978553</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.061379640555163</v>
+        <v>1.060549050497297</v>
       </c>
       <c r="J18">
-        <v>1.060085869893132</v>
+        <v>1.082775753158741</v>
       </c>
       <c r="K18">
-        <v>1.06420099577997</v>
+        <v>1.082958572389828</v>
       </c>
       <c r="L18">
-        <v>1.059200595642444</v>
+        <v>1.083642551599134</v>
       </c>
       <c r="M18">
-        <v>1.069499905646034</v>
+        <v>1.09385164322829</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.034762098287236</v>
+        <v>1.077027478764915</v>
       </c>
       <c r="D19">
-        <v>1.051611667536258</v>
+        <v>1.079855690342809</v>
       </c>
       <c r="E19">
-        <v>1.04655640392176</v>
+        <v>1.080548045925973</v>
       </c>
       <c r="F19">
-        <v>1.05702758536981</v>
+        <v>1.090791505752575</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.061573930455933</v>
+        <v>1.060580507938558</v>
       </c>
       <c r="J19">
-        <v>1.060445898391513</v>
+        <v>1.082844788068533</v>
       </c>
       <c r="K19">
-        <v>1.064535166276727</v>
+        <v>1.083021863414497</v>
       </c>
       <c r="L19">
-        <v>1.059556650223389</v>
+        <v>1.083712056343035</v>
       </c>
       <c r="M19">
-        <v>1.069869897074958</v>
+        <v>1.093923869607293</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.032495696359087</v>
+        <v>1.076601332808011</v>
       </c>
       <c r="D20">
-        <v>1.049814297597397</v>
+        <v>1.079510507537382</v>
       </c>
       <c r="E20">
-        <v>1.044657196155572</v>
+        <v>1.080175053028997</v>
       </c>
       <c r="F20">
-        <v>1.055069434571805</v>
+        <v>1.090406977001387</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.06070081027928</v>
+        <v>1.060439729039994</v>
       </c>
       <c r="J20">
-        <v>1.058828984923036</v>
+        <v>1.08253600324965</v>
       </c>
       <c r="K20">
-        <v>1.06303434332415</v>
+        <v>1.082738759352766</v>
       </c>
       <c r="L20">
-        <v>1.057957764118137</v>
+        <v>1.083401185194002</v>
       </c>
       <c r="M20">
-        <v>1.068208460500312</v>
+        <v>1.093600829623505</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.024958775127095</v>
+        <v>1.075215881450223</v>
       </c>
       <c r="D21">
-        <v>1.043844047779739</v>
+        <v>1.078388235252481</v>
       </c>
       <c r="E21">
-        <v>1.038351351366863</v>
+        <v>1.078962731789661</v>
       </c>
       <c r="F21">
-        <v>1.048567968822282</v>
+        <v>1.089157196746938</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05778585935168</v>
+        <v>1.059980393923774</v>
       </c>
       <c r="J21">
-        <v>1.053448814295062</v>
+        <v>1.081531328993791</v>
       </c>
       <c r="K21">
-        <v>1.058039811761008</v>
+        <v>1.08181744920711</v>
       </c>
       <c r="L21">
-        <v>1.052640835750367</v>
+        <v>1.082389989846952</v>
       </c>
       <c r="M21">
-        <v>1.062684142095534</v>
+        <v>1.092550124134547</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.020082480813703</v>
+        <v>1.074344776360514</v>
       </c>
       <c r="D22">
-        <v>1.039987238185529</v>
+        <v>1.07768257606207</v>
       </c>
       <c r="E22">
-        <v>1.034279755495657</v>
+        <v>1.07820073395221</v>
       </c>
       <c r="F22">
-        <v>1.044370131402247</v>
+        <v>1.088371681450418</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.055891454595592</v>
+        <v>1.059690324892975</v>
       </c>
       <c r="J22">
-        <v>1.049965859027712</v>
+        <v>1.080899043455633</v>
       </c>
       <c r="K22">
-        <v>1.054806088309842</v>
+        <v>1.081237481918057</v>
       </c>
       <c r="L22">
-        <v>1.049201396220779</v>
+        <v>1.081753805567564</v>
       </c>
       <c r="M22">
-        <v>1.059111035668278</v>
+        <v>1.091889138044788</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.022681094114839</v>
+        <v>1.074806567856661</v>
       </c>
       <c r="D23">
-        <v>1.042041973157031</v>
+        <v>1.078056663598815</v>
       </c>
       <c r="E23">
-        <v>1.036448733624246</v>
+        <v>1.078604661290391</v>
       </c>
       <c r="F23">
-        <v>1.046606352997799</v>
+        <v>1.088788072574326</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.056901771152176</v>
+        <v>1.059844216222074</v>
       </c>
       <c r="J23">
-        <v>1.05182212047262</v>
+        <v>1.081234287857264</v>
       </c>
       <c r="K23">
-        <v>1.056529554338045</v>
+        <v>1.081545000474659</v>
       </c>
       <c r="L23">
-        <v>1.051034219727715</v>
+        <v>1.082091097638278</v>
       </c>
       <c r="M23">
-        <v>1.061015040995505</v>
+        <v>1.092239574254061</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.032619842665097</v>
+        <v>1.076624559935571</v>
       </c>
       <c r="D24">
-        <v>1.049912727454397</v>
+        <v>1.079529321927202</v>
       </c>
       <c r="E24">
-        <v>1.04476119290802</v>
+        <v>1.080195381834328</v>
       </c>
       <c r="F24">
-        <v>1.055176658616352</v>
+        <v>1.09042793439867</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.060748680106288</v>
+        <v>1.060447408417046</v>
       </c>
       <c r="J24">
-        <v>1.058917566771407</v>
+        <v>1.082552836534639</v>
       </c>
       <c r="K24">
-        <v>1.063116567787633</v>
+        <v>1.082754193385702</v>
       </c>
       <c r="L24">
-        <v>1.058045346393909</v>
+        <v>1.083418131209095</v>
       </c>
       <c r="M24">
-        <v>1.068299466859765</v>
+        <v>1.093618438705975</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.043606443094869</v>
+        <v>1.078734226506662</v>
       </c>
       <c r="D25">
-        <v>1.058634411340126</v>
+        <v>1.081238102912341</v>
       </c>
       <c r="E25">
-        <v>1.053981032027616</v>
+        <v>1.082042384705401</v>
       </c>
       <c r="F25">
-        <v>1.064682757729585</v>
+        <v>1.092332113952471</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.064964062876242</v>
+        <v>1.061141880158449</v>
       </c>
       <c r="J25">
-        <v>1.066750402715894</v>
+        <v>1.084080330242828</v>
       </c>
       <c r="K25">
-        <v>1.070385920786042</v>
+        <v>1.08415436162821</v>
       </c>
       <c r="L25">
-        <v>1.065795413274421</v>
+        <v>1.084956343393022</v>
       </c>
       <c r="M25">
-        <v>1.0763535787502</v>
+        <v>1.095216971038559</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_185/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_185/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.080416947809462</v>
+        <v>1.051979028218827</v>
       </c>
       <c r="D2">
-        <v>1.082600923681428</v>
+        <v>1.065294662571571</v>
       </c>
       <c r="E2">
-        <v>1.083516436617712</v>
+        <v>1.06102898616225</v>
       </c>
       <c r="F2">
-        <v>1.093851892338386</v>
+        <v>1.071949739308833</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.06169137221202</v>
+        <v>1.068144883941303</v>
       </c>
       <c r="J2">
-        <v>1.085296588463696</v>
+        <v>1.072708911627879</v>
       </c>
       <c r="K2">
-        <v>1.085268716931678</v>
+        <v>1.075913546561473</v>
       </c>
       <c r="L2">
-        <v>1.086181849270659</v>
+        <v>1.071698855102648</v>
       </c>
       <c r="M2">
-        <v>1.096490727932794</v>
+        <v>1.082490082238044</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.081638820709448</v>
+        <v>1.057854055022743</v>
       </c>
       <c r="D3">
-        <v>1.083590410843402</v>
+        <v>1.069974661140618</v>
       </c>
       <c r="E3">
-        <v>1.084587261377797</v>
+        <v>1.065985787647056</v>
       </c>
       <c r="F3">
-        <v>1.094955990059693</v>
+        <v>1.077060693932345</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062087799923796</v>
+        <v>1.070357696595928</v>
       </c>
       <c r="J3">
-        <v>1.086178520799056</v>
+        <v>1.076882853565803</v>
       </c>
       <c r="K3">
-        <v>1.086076453293011</v>
+        <v>1.079784148605833</v>
       </c>
       <c r="L3">
-        <v>1.087070899070885</v>
+        <v>1.075838642241407</v>
       </c>
       <c r="M3">
-        <v>1.097414893440484</v>
+        <v>1.086794111891447</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.08242949720248</v>
+        <v>1.061567679239447</v>
       </c>
       <c r="D4">
-        <v>1.084230661042608</v>
+        <v>1.072935494247826</v>
       </c>
       <c r="E4">
-        <v>1.085280408757778</v>
+        <v>1.069123815775925</v>
       </c>
       <c r="F4">
-        <v>1.095670700494448</v>
+        <v>1.080296363549695</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.062343137207977</v>
+        <v>1.071747279418287</v>
       </c>
       <c r="J4">
-        <v>1.086748650882023</v>
+        <v>1.079517623800549</v>
       </c>
       <c r="K4">
-        <v>1.086598477465925</v>
+        <v>1.082226675371118</v>
       </c>
       <c r="L4">
-        <v>1.087645820267207</v>
+        <v>1.078453856232781</v>
       </c>
       <c r="M4">
-        <v>1.098012574447813</v>
+        <v>1.089513445633882</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.082761909246758</v>
+        <v>1.063108749085883</v>
       </c>
       <c r="D5">
-        <v>1.084499819287961</v>
+        <v>1.074164735186018</v>
       </c>
       <c r="E5">
-        <v>1.08557186882606</v>
+        <v>1.070427127228324</v>
       </c>
       <c r="F5">
-        <v>1.095971233636998</v>
+        <v>1.081640240417429</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062450199306736</v>
+        <v>1.072321690816952</v>
       </c>
       <c r="J5">
-        <v>1.086988205182483</v>
+        <v>1.080610090173562</v>
       </c>
       <c r="K5">
-        <v>1.086817784879367</v>
+        <v>1.083239238631693</v>
       </c>
       <c r="L5">
-        <v>1.087887433080355</v>
+        <v>1.079538689323581</v>
       </c>
       <c r="M5">
-        <v>1.098263764481661</v>
+        <v>1.090641555090104</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.082817723413897</v>
+        <v>1.063366345987762</v>
       </c>
       <c r="D6">
-        <v>1.084545011982561</v>
+        <v>1.074370239846577</v>
       </c>
       <c r="E6">
-        <v>1.085620809841619</v>
+        <v>1.070645044904141</v>
       </c>
       <c r="F6">
-        <v>1.096021698529139</v>
+        <v>1.081864941468494</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062468158994482</v>
+        <v>1.072417573839242</v>
       </c>
       <c r="J6">
-        <v>1.087028419894739</v>
+        <v>1.080792646647477</v>
       </c>
       <c r="K6">
-        <v>1.086854598687778</v>
+        <v>1.08340843132593</v>
       </c>
       <c r="L6">
-        <v>1.087927996022097</v>
+        <v>1.07971999804457</v>
       </c>
       <c r="M6">
-        <v>1.098305936008283</v>
+        <v>1.09083010161995</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.082433938861021</v>
+        <v>1.061588349056515</v>
       </c>
       <c r="D7">
-        <v>1.084234257559231</v>
+        <v>1.072951979469025</v>
       </c>
       <c r="E7">
-        <v>1.085284303021456</v>
+        <v>1.069141292343956</v>
       </c>
       <c r="F7">
-        <v>1.095674715961671</v>
+        <v>1.080314384025883</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.06234456888346</v>
+        <v>1.071754992674019</v>
       </c>
       <c r="J7">
-        <v>1.086751852321927</v>
+        <v>1.079532280284954</v>
       </c>
       <c r="K7">
-        <v>1.086601408457126</v>
+        <v>1.082240260651397</v>
       </c>
       <c r="L7">
-        <v>1.08764904903902</v>
+        <v>1.078468408436426</v>
       </c>
       <c r="M7">
-        <v>1.098015931155575</v>
+        <v>1.089528578019288</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.08082987737841</v>
+        <v>1.053983288425789</v>
       </c>
       <c r="D8">
-        <v>1.082935328704265</v>
+        <v>1.066890658592101</v>
       </c>
       <c r="E8">
-        <v>1.083878274975155</v>
+        <v>1.062718948006529</v>
       </c>
       <c r="F8">
-        <v>1.094224968576909</v>
+        <v>1.073692247059758</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061825590901966</v>
+        <v>1.068901679024155</v>
       </c>
       <c r="J8">
-        <v>1.085594753659825</v>
+        <v>1.074133576987197</v>
       </c>
       <c r="K8">
-        <v>1.085541827074231</v>
+        <v>1.077234829257366</v>
       </c>
       <c r="L8">
-        <v>1.086482381341756</v>
+        <v>1.07311143782607</v>
       </c>
       <c r="M8">
-        <v>1.096803119733042</v>
+        <v>1.083958630714335</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.078003585153308</v>
+        <v>1.039865020305686</v>
       </c>
       <c r="D9">
-        <v>1.080646321009909</v>
+        <v>1.055661917958435</v>
       </c>
       <c r="E9">
-        <v>1.081402580407304</v>
+        <v>1.050837627499233</v>
       </c>
       <c r="F9">
-        <v>1.091672488852449</v>
+        <v>1.061441723469105</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.060902049681847</v>
+        <v>1.06353341949906</v>
       </c>
       <c r="J9">
-        <v>1.083551638393818</v>
+        <v>1.064084529809115</v>
       </c>
       <c r="K9">
-        <v>1.083669819673396</v>
+        <v>1.067912151034699</v>
       </c>
       <c r="L9">
-        <v>1.084423831009779</v>
+        <v>1.06315643650218</v>
       </c>
       <c r="M9">
-        <v>1.09466354645615</v>
+        <v>1.073610834230914</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.076119484360374</v>
+        <v>1.029904048999061</v>
       </c>
       <c r="D10">
-        <v>1.079120197503143</v>
+        <v>1.04776015350453</v>
       </c>
       <c r="E10">
-        <v>1.079753361865137</v>
+        <v>1.042487134979768</v>
       </c>
       <c r="F10">
-        <v>1.089972250070596</v>
+        <v>1.05283203880063</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.060280259538646</v>
+        <v>1.059700387347621</v>
       </c>
       <c r="J10">
-        <v>1.082186719757437</v>
+        <v>1.056979463353321</v>
       </c>
       <c r="K10">
-        <v>1.082418491065267</v>
+        <v>1.061317495301492</v>
       </c>
       <c r="L10">
-        <v>1.083049588579778</v>
+        <v>1.056129425217608</v>
       </c>
       <c r="M10">
-        <v>1.093235482703579</v>
+        <v>1.06630870043873</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.075303650135021</v>
+        <v>1.025444087286794</v>
       </c>
       <c r="D11">
-        <v>1.07845933321326</v>
+        <v>1.044228152492267</v>
       </c>
       <c r="E11">
-        <v>1.079039518038701</v>
+        <v>1.038756929780064</v>
       </c>
       <c r="F11">
-        <v>1.089236353995435</v>
+        <v>1.048986125280279</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.060009566565047</v>
+        <v>1.057974052735019</v>
       </c>
       <c r="J11">
-        <v>1.081595010112787</v>
+        <v>1.053795376619004</v>
       </c>
       <c r="K11">
-        <v>1.081875854864655</v>
+        <v>1.058361559096635</v>
       </c>
       <c r="L11">
-        <v>1.082454072334561</v>
+        <v>1.052983176961262</v>
       </c>
       <c r="M11">
-        <v>1.092616707253953</v>
+        <v>1.063039808543072</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C12">
-        <v>1.075000610225723</v>
+        <v>1.023763840354785</v>
       </c>
       <c r="D12">
-        <v>1.07821385158801</v>
+        <v>1.042898502049528</v>
       </c>
       <c r="E12">
-        <v>1.078774405635406</v>
+        <v>1.037353009412908</v>
       </c>
       <c r="F12">
-        <v>1.088963056371649</v>
+        <v>1.047538667933664</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.059908800229038</v>
+        <v>1.057322215611372</v>
       </c>
       <c r="J12">
-        <v>1.081375117985726</v>
+        <v>1.052595444933643</v>
       </c>
       <c r="K12">
-        <v>1.081674174179077</v>
+        <v>1.057247533353369</v>
       </c>
       <c r="L12">
-        <v>1.082232801052846</v>
+        <v>1.05179794505962</v>
       </c>
       <c r="M12">
-        <v>1.092386803344554</v>
+        <v>1.061808459028923</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.075065613468904</v>
+        <v>1.024125354510414</v>
       </c>
       <c r="D13">
-        <v>1.078266508568451</v>
+        <v>1.04318453679775</v>
       </c>
       <c r="E13">
-        <v>1.078831271305858</v>
+        <v>1.037655005693435</v>
       </c>
       <c r="F13">
-        <v>1.089021677530015</v>
+        <v>1.04785002888699</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.059930424864547</v>
+        <v>1.057462526640805</v>
       </c>
       <c r="J13">
-        <v>1.081422290353154</v>
+        <v>1.052853631710788</v>
       </c>
       <c r="K13">
-        <v>1.081717440879809</v>
+        <v>1.057487238985512</v>
       </c>
       <c r="L13">
-        <v>1.082280267677366</v>
+        <v>1.052052948849592</v>
       </c>
       <c r="M13">
-        <v>1.092436121385875</v>
+        <v>1.062073381233216</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.075278600828319</v>
+        <v>1.025305688918181</v>
       </c>
       <c r="D14">
-        <v>1.078439041777001</v>
+        <v>1.044118611172276</v>
       </c>
       <c r="E14">
-        <v>1.079017602933968</v>
+        <v>1.038641262882952</v>
       </c>
       <c r="F14">
-        <v>1.089213762176226</v>
+        <v>1.048866871196916</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.060001241656954</v>
+        <v>1.057920391518993</v>
       </c>
       <c r="J14">
-        <v>1.081576835905168</v>
+        <v>1.053696547659839</v>
       </c>
       <c r="K14">
-        <v>1.08185918635852</v>
+        <v>1.058269806933083</v>
       </c>
       <c r="L14">
-        <v>1.082435783415199</v>
+        <v>1.052885549702326</v>
       </c>
       <c r="M14">
-        <v>1.092597704618627</v>
+        <v>1.062938380867998</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.075409828950438</v>
+        <v>1.02602975299433</v>
       </c>
       <c r="D15">
-        <v>1.07854534420324</v>
+        <v>1.044691743902415</v>
       </c>
       <c r="E15">
-        <v>1.079132413403036</v>
+        <v>1.039246459347411</v>
       </c>
       <c r="F15">
-        <v>1.089332118059628</v>
+        <v>1.049490837142497</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.06004484519682</v>
+        <v>1.058201074007933</v>
       </c>
       <c r="J15">
-        <v>1.081672042600232</v>
+        <v>1.054213580766528</v>
       </c>
       <c r="K15">
-        <v>1.081946504308779</v>
+        <v>1.05874981422075</v>
       </c>
       <c r="L15">
-        <v>1.082531592487219</v>
+        <v>1.05339631399104</v>
       </c>
       <c r="M15">
-        <v>1.092697252985656</v>
+        <v>1.063469031526602</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.076173628305318</v>
+        <v>1.03019681885862</v>
       </c>
       <c r="D16">
-        <v>1.079164055922363</v>
+        <v>1.047992140548565</v>
       </c>
       <c r="E16">
-        <v>1.079800743124408</v>
+        <v>1.042732188821455</v>
       </c>
       <c r="F16">
-        <v>1.090021095702848</v>
+        <v>1.053084695620055</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.060298193868043</v>
+        <v>1.059813505765201</v>
       </c>
       <c r="J16">
-        <v>1.082225974934593</v>
+        <v>1.057188426279779</v>
       </c>
       <c r="K16">
-        <v>1.082454487059195</v>
+        <v>1.061511474377256</v>
       </c>
       <c r="L16">
-        <v>1.083089101259543</v>
+        <v>1.05633596519839</v>
       </c>
       <c r="M16">
-        <v>1.093276539984573</v>
+        <v>1.066523302971935</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>1.076652736523996</v>
+        <v>1.032770347438495</v>
       </c>
       <c r="D17">
-        <v>1.079552145443571</v>
+        <v>1.050032059526545</v>
       </c>
       <c r="E17">
-        <v>1.080220042684818</v>
+        <v>1.044887275589771</v>
       </c>
       <c r="F17">
-        <v>1.090453357813935</v>
+        <v>1.055306654022315</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.060456723232164</v>
+        <v>1.060806706940278</v>
       </c>
       <c r="J17">
-        <v>1.082573256365616</v>
+        <v>1.059024954234702</v>
       </c>
       <c r="K17">
-        <v>1.08277291572442</v>
+        <v>1.063216247825515</v>
       </c>
       <c r="L17">
-        <v>1.083438687943874</v>
+        <v>1.058151523926703</v>
       </c>
       <c r="M17">
-        <v>1.093639799831212</v>
+        <v>1.06840979581723</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.076932191771472</v>
+        <v>1.034257392414015</v>
       </c>
       <c r="D18">
-        <v>1.07977850742401</v>
+        <v>1.051211329465086</v>
       </c>
       <c r="E18">
-        <v>1.080464639973408</v>
+        <v>1.046133348930552</v>
       </c>
       <c r="F18">
-        <v>1.09070551978553</v>
+        <v>1.056591399583709</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.060549050497297</v>
+        <v>1.061379640555164</v>
       </c>
       <c r="J18">
-        <v>1.082775753158741</v>
+        <v>1.060085869893135</v>
       </c>
       <c r="K18">
-        <v>1.082958572389828</v>
+        <v>1.064200995779973</v>
       </c>
       <c r="L18">
-        <v>1.083642551599134</v>
+        <v>1.059200595642446</v>
       </c>
       <c r="M18">
-        <v>1.09385164322829</v>
+        <v>1.069499905646036</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.077027478764915</v>
+        <v>1.034762098287235</v>
       </c>
       <c r="D19">
-        <v>1.079855690342809</v>
+        <v>1.051611667536258</v>
       </c>
       <c r="E19">
-        <v>1.080548045925973</v>
+        <v>1.04655640392176</v>
       </c>
       <c r="F19">
-        <v>1.090791505752575</v>
+        <v>1.05702758536981</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.060580507938558</v>
+        <v>1.061573930455933</v>
       </c>
       <c r="J19">
-        <v>1.082844788068533</v>
+        <v>1.060445898391512</v>
       </c>
       <c r="K19">
-        <v>1.083021863414497</v>
+        <v>1.064535166276726</v>
       </c>
       <c r="L19">
-        <v>1.083712056343035</v>
+        <v>1.059556650223388</v>
       </c>
       <c r="M19">
-        <v>1.093923869607293</v>
+        <v>1.069869897074957</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.076601332808011</v>
+        <v>1.032495696359088</v>
       </c>
       <c r="D20">
-        <v>1.079510507537382</v>
+        <v>1.049814297597399</v>
       </c>
       <c r="E20">
-        <v>1.080175053028997</v>
+        <v>1.044657196155572</v>
       </c>
       <c r="F20">
-        <v>1.090406977001387</v>
+        <v>1.055069434571806</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.060439729039994</v>
+        <v>1.060700810279281</v>
       </c>
       <c r="J20">
-        <v>1.08253600324965</v>
+        <v>1.058828984923037</v>
       </c>
       <c r="K20">
-        <v>1.082738759352766</v>
+        <v>1.063034343324152</v>
       </c>
       <c r="L20">
-        <v>1.083401185194002</v>
+        <v>1.057957764118137</v>
       </c>
       <c r="M20">
-        <v>1.093600829623505</v>
+        <v>1.068208460500313</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.075215881450223</v>
+        <v>1.024958775127094</v>
       </c>
       <c r="D21">
-        <v>1.078388235252481</v>
+        <v>1.043844047779738</v>
       </c>
       <c r="E21">
-        <v>1.078962731789661</v>
+        <v>1.038351351366862</v>
       </c>
       <c r="F21">
-        <v>1.089157196746938</v>
+        <v>1.048567968822281</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.059980393923774</v>
+        <v>1.05778585935168</v>
       </c>
       <c r="J21">
-        <v>1.081531328993791</v>
+        <v>1.053448814295061</v>
       </c>
       <c r="K21">
-        <v>1.08181744920711</v>
+        <v>1.058039811761007</v>
       </c>
       <c r="L21">
-        <v>1.082389989846952</v>
+        <v>1.052640835750366</v>
       </c>
       <c r="M21">
-        <v>1.092550124134547</v>
+        <v>1.062684142095533</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.074344776360514</v>
+        <v>1.020082480813701</v>
       </c>
       <c r="D22">
-        <v>1.07768257606207</v>
+        <v>1.039987238185527</v>
       </c>
       <c r="E22">
-        <v>1.07820073395221</v>
+        <v>1.034279755495655</v>
       </c>
       <c r="F22">
-        <v>1.088371681450418</v>
+        <v>1.044370131402245</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.059690324892975</v>
+        <v>1.055891454595592</v>
       </c>
       <c r="J22">
-        <v>1.080899043455633</v>
+        <v>1.04996585902771</v>
       </c>
       <c r="K22">
-        <v>1.081237481918057</v>
+        <v>1.05480608830984</v>
       </c>
       <c r="L22">
-        <v>1.081753805567564</v>
+        <v>1.049201396220777</v>
       </c>
       <c r="M22">
-        <v>1.091889138044788</v>
+        <v>1.059111035668277</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.074806567856661</v>
+        <v>1.022681094114839</v>
       </c>
       <c r="D23">
-        <v>1.078056663598815</v>
+        <v>1.042041973157032</v>
       </c>
       <c r="E23">
-        <v>1.078604661290391</v>
+        <v>1.036448733624247</v>
       </c>
       <c r="F23">
-        <v>1.088788072574326</v>
+        <v>1.0466063529978</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.059844216222074</v>
+        <v>1.056901771152176</v>
       </c>
       <c r="J23">
-        <v>1.081234287857264</v>
+        <v>1.05182212047262</v>
       </c>
       <c r="K23">
-        <v>1.081545000474659</v>
+        <v>1.056529554338045</v>
       </c>
       <c r="L23">
-        <v>1.082091097638278</v>
+        <v>1.051034219727716</v>
       </c>
       <c r="M23">
-        <v>1.092239574254061</v>
+        <v>1.061015040995505</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.076624559935571</v>
+        <v>1.032619842665099</v>
       </c>
       <c r="D24">
-        <v>1.079529321927202</v>
+        <v>1.049912727454399</v>
       </c>
       <c r="E24">
-        <v>1.080195381834328</v>
+        <v>1.044761192908022</v>
       </c>
       <c r="F24">
-        <v>1.09042793439867</v>
+        <v>1.055176658616354</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.060447408417046</v>
+        <v>1.060748680106289</v>
       </c>
       <c r="J24">
-        <v>1.082552836534639</v>
+        <v>1.058917566771409</v>
       </c>
       <c r="K24">
-        <v>1.082754193385702</v>
+        <v>1.063116567787635</v>
       </c>
       <c r="L24">
-        <v>1.083418131209095</v>
+        <v>1.05804534639391</v>
       </c>
       <c r="M24">
-        <v>1.093618438705975</v>
+        <v>1.068299466859767</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.078734226506662</v>
+        <v>1.04360644309487</v>
       </c>
       <c r="D25">
-        <v>1.081238102912341</v>
+        <v>1.058634411340127</v>
       </c>
       <c r="E25">
-        <v>1.082042384705401</v>
+        <v>1.053981032027617</v>
       </c>
       <c r="F25">
-        <v>1.092332113952471</v>
+        <v>1.064682757729587</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.061141880158449</v>
+        <v>1.064964062876243</v>
       </c>
       <c r="J25">
-        <v>1.084080330242828</v>
+        <v>1.066750402715896</v>
       </c>
       <c r="K25">
-        <v>1.08415436162821</v>
+        <v>1.070385920786044</v>
       </c>
       <c r="L25">
-        <v>1.084956343393022</v>
+        <v>1.065795413274422</v>
       </c>
       <c r="M25">
-        <v>1.095216971038559</v>
+        <v>1.076353578750201</v>
       </c>
     </row>
   </sheetData>
